--- a/biology/Histoire de la zoologie et de la botanique/Amédée_de_Béhague/Amédée_de_Béhague.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Amédée_de_Béhague/Amédée_de_Béhague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_de_B%C3%A9hague</t>
+          <t>Amédée_de_Béhague</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amédée, comte de Béhague, est un agronome français, né à Strasbourg en octobre 1803 (21 vendémiaire an XII) et mort au château de Dampierre-en-Burly (Loiret) le 1er février 1884.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_de_B%C3%A9hague</t>
+          <t>Amédée_de_Béhague</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'Eustache de Béhague (1757-1821), maire de Drancy et cousin du général de Béhague, et de sa seconde femme, Henriette von Weitersheim (remariée au général-vicomte Jean-François Nicolas Joseph Maucomble), réputé naturel « attendu le défaut d'existence d'un acte d'état-civil constatant la célébration du mariage entre Monsieur Béhague et Madame de Weittersheim », reconnu par acte du 21 vendémiaire an XII à Strasbourg. De ce fait, il ne put hériter que de la moitié de l'héritage paternel.
 Le 7 mai 1825, il épouse à Paris Victoire-Félicie Bailliot, fille de Claude Bailliot et nièce du général-comte Jean-Marie Defrance. Le couple a deux enfants : 
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_de_B%C3%A9hague</t>
+          <t>Amédée_de_Béhague</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Note sur quelques travaux agricoles exécutés sur la terre de Dampierre (Loiret), de 1826 à 1841 (1841)
 Bêtes bovines. Troupeau mérinos, Dishley-mérinos et Dishley-Solognot (1843)
